--- a/dist/checklists/core/xlsx/dwc/stx_fish_dwc_core.xlsx
+++ b/dist/checklists/core/xlsx/dwc/stx_fish_dwc_core.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="249">
   <si>
     <t>Study ID</t>
   </si>
@@ -146,6 +146,12 @@
     <t>Scientific Name</t>
   </si>
   <si>
+    <t>Organism</t>
+  </si>
+  <si>
+    <t>Strain</t>
+  </si>
+  <si>
     <t>Tissue</t>
   </si>
   <si>
@@ -161,12 +167,21 @@
     <t>Medium</t>
   </si>
   <si>
+    <t>Accession Number</t>
+  </si>
+  <si>
     <t>Behaviour</t>
   </si>
   <si>
     <t>Scientific Name (optional)</t>
   </si>
   <si>
+    <t>Organism (optional)</t>
+  </si>
+  <si>
+    <t>Strain (optional)</t>
+  </si>
+  <si>
     <t>Tissue (optional)</t>
   </si>
   <si>
@@ -182,6 +197,9 @@
     <t>Medium (optional)</t>
   </si>
   <si>
+    <t>Accession Number (optional)</t>
+  </si>
+  <si>
     <t>Behaviour (optional)</t>
   </si>
   <si>
@@ -197,6 +215,12 @@
     <t>e.g. Arenicola marina</t>
   </si>
   <si>
+    <t>An identifier of the strain of the organism, if applicable.</t>
+  </si>
+  <si>
+    <t>e.g. CCAP1119/17</t>
+  </si>
+  <si>
     <t>The type of tissue sampled for the study.</t>
   </si>
   <si>
@@ -225,6 +249,12 @@
   </si>
   <si>
     <t>e.g. Tissue culture</t>
+  </si>
+  <si>
+    <t>A unique alphanumeric reference or identifier assigned to the sample in the study related to NCBI Taxonomy.</t>
+  </si>
+  <si>
+    <t>e.g. accession123</t>
   </si>
   <si>
     <t>A description of the behaviour shown by the subject at the time the dwc:Occurrence was recorded.</t>
@@ -1277,408 +1307,408 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:J78"/>
+  <dimension ref="E5:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:10">
-      <c r="C5" t="s">
-        <v>71</v>
+    <row r="5" spans="5:10">
+      <c r="E5" t="s">
+        <v>81</v>
       </c>
       <c r="J5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="3:10">
-      <c r="C6" t="s">
-        <v>72</v>
+    <row r="6" spans="5:10">
+      <c r="E6" t="s">
+        <v>82</v>
       </c>
       <c r="J6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="3:10">
-      <c r="C7" t="s">
-        <v>73</v>
+    <row r="7" spans="5:10">
+      <c r="E7" t="s">
+        <v>83</v>
       </c>
       <c r="J7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="3:10">
-      <c r="C8" t="s">
-        <v>74</v>
+    <row r="8" spans="5:10">
+      <c r="E8" t="s">
+        <v>84</v>
       </c>
       <c r="J8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="3:10">
-      <c r="C9" t="s">
-        <v>75</v>
+    <row r="9" spans="5:10">
+      <c r="E9" t="s">
+        <v>85</v>
       </c>
       <c r="J9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="3:10">
-      <c r="C10" t="s">
-        <v>76</v>
+    <row r="10" spans="5:10">
+      <c r="E10" t="s">
+        <v>86</v>
       </c>
       <c r="J10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="3:10">
-      <c r="C11" t="s">
-        <v>77</v>
+    <row r="11" spans="5:10">
+      <c r="E11" t="s">
+        <v>87</v>
       </c>
       <c r="J11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="3:10">
-      <c r="C12" t="s">
-        <v>78</v>
+    <row r="12" spans="5:10">
+      <c r="E12" t="s">
+        <v>88</v>
       </c>
       <c r="J12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="3:10">
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10">
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10">
-      <c r="C15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10">
-      <c r="C16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
+    <row r="13" spans="5:10">
+      <c r="E13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    <row r="14" spans="5:10">
+      <c r="E14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
+    <row r="15" spans="5:10">
+      <c r="E15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
+    <row r="16" spans="5:10">
+      <c r="E16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
+    <row r="18" spans="5:5">
+      <c r="E18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
+    <row r="19" spans="5:5">
+      <c r="E19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row r="20" spans="5:5">
+      <c r="E20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
+    <row r="21" spans="5:5">
+      <c r="E21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
+    <row r="22" spans="5:5">
+      <c r="E22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="s">
+    <row r="23" spans="5:5">
+      <c r="E23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
+    <row r="24" spans="5:5">
+      <c r="E24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
-      <c r="C35" t="s">
+    <row r="25" spans="5:5">
+      <c r="E25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="s">
+    <row r="26" spans="5:5">
+      <c r="E26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
-      <c r="C37" t="s">
+    <row r="27" spans="5:5">
+      <c r="E27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
-      <c r="C38" t="s">
+    <row r="28" spans="5:5">
+      <c r="E28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
-      <c r="C39" t="s">
+    <row r="29" spans="5:5">
+      <c r="E29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
-      <c r="C40" t="s">
+    <row r="30" spans="5:5">
+      <c r="E30" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
-      <c r="C41" t="s">
+    <row r="31" spans="5:5">
+      <c r="E31" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
-      <c r="C42" t="s">
+    <row r="32" spans="5:5">
+      <c r="E32" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
-      <c r="C43" t="s">
+    <row r="33" spans="5:5">
+      <c r="E33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
-      <c r="C44" t="s">
+    <row r="34" spans="5:5">
+      <c r="E34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
-      <c r="C45" t="s">
+    <row r="35" spans="5:5">
+      <c r="E35" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
-      <c r="C46" t="s">
+    <row r="36" spans="5:5">
+      <c r="E36" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
-      <c r="C47" t="s">
+    <row r="37" spans="5:5">
+      <c r="E37" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
-      <c r="C48" t="s">
+    <row r="38" spans="5:5">
+      <c r="E38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" t="s">
+    <row r="39" spans="5:5">
+      <c r="E39" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
-      <c r="C50" t="s">
+    <row r="40" spans="5:5">
+      <c r="E40" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
-      <c r="C51" t="s">
+    <row r="41" spans="5:5">
+      <c r="E41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
-      <c r="C52" t="s">
+    <row r="42" spans="5:5">
+      <c r="E42" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
-      <c r="C53" t="s">
+    <row r="43" spans="5:5">
+      <c r="E43" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
-      <c r="C54" t="s">
+    <row r="44" spans="5:5">
+      <c r="E44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
-      <c r="C55" t="s">
+    <row r="45" spans="5:5">
+      <c r="E45" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
-      <c r="C56" t="s">
+    <row r="46" spans="5:5">
+      <c r="E46" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
-      <c r="C57" t="s">
+    <row r="47" spans="5:5">
+      <c r="E47" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="3:3">
-      <c r="C58" t="s">
+    <row r="48" spans="5:5">
+      <c r="E48" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
-      <c r="C59" t="s">
+    <row r="49" spans="5:5">
+      <c r="E49" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
-      <c r="C60" t="s">
+    <row r="50" spans="5:5">
+      <c r="E50" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
-      <c r="C61" t="s">
+    <row r="51" spans="5:5">
+      <c r="E51" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
-      <c r="C62" t="s">
+    <row r="52" spans="5:5">
+      <c r="E52" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="3:3">
-      <c r="C63" t="s">
+    <row r="53" spans="5:5">
+      <c r="E53" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
-      <c r="C64" t="s">
+    <row r="54" spans="5:5">
+      <c r="E54" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
+    <row r="55" spans="5:5">
+      <c r="E55" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
+    <row r="56" spans="5:5">
+      <c r="E56" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
+    <row r="57" spans="5:5">
+      <c r="E57" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
+    <row r="58" spans="5:5">
+      <c r="E58" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
+    <row r="59" spans="5:5">
+      <c r="E59" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
+    <row r="60" spans="5:5">
+      <c r="E60" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
-      <c r="C71" t="s">
+    <row r="61" spans="5:5">
+      <c r="E61" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
+    <row r="62" spans="5:5">
+      <c r="E62" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="3:3">
-      <c r="C73" t="s">
+    <row r="63" spans="5:5">
+      <c r="E63" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
+    <row r="64" spans="5:5">
+      <c r="E64" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
+    <row r="65" spans="5:5">
+      <c r="E65" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
+    <row r="66" spans="5:5">
+      <c r="E66" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
+    <row r="67" spans="5:5">
+      <c r="E67" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="3:3">
-      <c r="C78" t="s">
+    <row r="68" spans="5:5">
+      <c r="E68" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5">
+      <c r="E69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5">
+      <c r="E73" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5">
+      <c r="E75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1688,101 +1718,130 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="183.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="100" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="88" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="183.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="100" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="97.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -1793,38 +1852,50 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A4:K4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:H4">
+  <conditionalFormatting sqref="A1:K4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="10">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1005">
       <formula1>AND(LEN(B5)&gt;0, CODE(LEFT(B5,1))&gt;=65, CODE(LEFT(B5,1))&lt;=90, SUM(--ISNUMBER(FIND(MID(B5, ROW(INDIRECT("1:"&amp;LEN(B5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="C5:C1005">
-      <formula1>HiddenDropdowns!$C$5:$C$78</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1005">
+      <formula1>AND(LEN(C5)&gt;0, CODE(LEFT(C5,1))&gt;=65, CODE(LEFT(C5,1))&lt;=90, SUM(--ISNUMBER(FIND(MID(C5, ROW(INDIRECT("1:"&amp;LEN(C5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(D5, ROW(INDIRECT("1:"&amp;LEN(D5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
+      <formula1>HiddenDropdowns!$E$5:$E$78</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
       <formula1>"Air Dried,Dry Ice,Ethanol/Dry Ice Slurry,Lyophilised,Not Applicable,Not Collected,Not Provided,Other,Rnalater,Snap Frozen"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1005">
-      <formula1>AND(ISNUMBER(F5+0), F5&gt;=-180, F5&lt;=180)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(G5, ROW(INDIRECT("1:"&amp;LEN(G5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(H5, ROW(INDIRECT("1:"&amp;LEN(H5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+      <formula1>AND(ISNUMBER(H5+0), H5&gt;=-180, H5&lt;=180)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(I5, ROW(INDIRECT("1:"&amp;LEN(I5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(J5, ROW(INDIRECT("1:"&amp;LEN(J5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(K5, ROW(INDIRECT("1:"&amp;LEN(K5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1868,233 +1939,233 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="4" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="T3" s="4" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2223,35 +2294,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:3">
